--- a/data/output/1_SLR_parsing_procedure(symbol action).xlsx
+++ b/data/output/1_SLR_parsing_procedure(symbol action).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B679"/>
+  <dimension ref="A1:B737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,878 +2413,878 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Shift to `62`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [</t>
+          <t>$ Basic id ( ) { Decls Stmts M id =</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ num</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `62`</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ num</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ Expr_Unary</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ Expr_Term</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ Expr_Arith</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Shift to `91`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr ]</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ Expr_Assign</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ Expr</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Shift to `50`</t>
+          <t>Shift to `91`</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id [ Expr ]</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ num</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `50`</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ num</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ Expr_Unary</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ Expr_Term</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ Expr_Arith</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Shift to `87`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr ]</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ Expr_Assign</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Reduce by `Loc -&gt; Loc [ Expr ]`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ Expr</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Shift to `49`</t>
+          <t>Shift to `87`</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc =</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc [ Expr ]</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Loc -&gt; Loc [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Loc</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Shift to `62`</t>
+          <t>Reduce by `Expr_Unary -&gt; Loc`</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ num</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Term</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Shift to `91`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr ]</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Shift to `50`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ num</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Shift to `87`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr ]</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Reduce by `Loc -&gt; Loc [ Expr ]`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc</t>
+          <t>$ Basic id ( ) { Decls Stmts M id</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; Loc`</t>
+          <t>Shift to `62`</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ num</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Unary</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Term</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Arith</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Assign</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Shift to `91`</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr ]</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `50`</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Loc = Expr`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ num</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Unary</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Term</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Arith</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr_Assign</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `87`</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc [ Expr ]</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Loc -&gt; Loc [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Shift to `62`</t>
+          <t>Shift to `49`</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc =</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ num</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `62`</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ num</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Unary</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Term</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Arith</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Shift to `91`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M id [ Expr ]</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr_Assign</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Shift to `49`</t>
+          <t>Shift to `91`</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc =</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = id [ Expr ]</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = num</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `50`</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ num</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Unary</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Term</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Arith</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Loc = Expr`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr_Assign</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -3296,787 +3296,787 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Shift to `87`</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc [ Expr ]</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Reduce by `Loc -&gt; Loc [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Loc</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Expr_Unary -&gt; Loc`</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Unary</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Term</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Shift to `39`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith +</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Shift to `63`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if (</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Assign</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Assign -&gt; Loc = Expr`</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Shift to `97`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr &lt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &lt;`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M id</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `62`</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ num</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Unary</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Shift to `94`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp;</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Term</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Reduce by `K -&gt; `</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Arith</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K id</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr_Assign</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `91`</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id [ Expr ]</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Loc -&gt; id [ Expr ]`</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `49`</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc =</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = num</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Shift to `97`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr &lt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Unary</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &lt;`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Term</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Arith</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr_Assign</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M Loc = Expr</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Assign -&gt; Loc = Expr`</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Join &amp;&amp; K Bool_Unary`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Shift to `92`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool )</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M id</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Shift to `39`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if</t>
+          <t>$ Basic id ( ) { Decls Stmts M id =</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Shift to `63`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if (</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = id</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Term</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Shift to `100`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr &gt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &gt;`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel id</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M id = Expr</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Shift to `92`</t>
+          <t>Shift to `39`</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool )</t>
+          <t>$ Basic id ( ) { Decls Stmts M if</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `63`</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if (</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -4088,1075 +4088,1075 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( id</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Unary</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = num</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Term</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Arith</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr_Assign</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `97`</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr &lt;</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Rel -&gt; &lt;`</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel num</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Reduce by `N -&gt; `</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Shift to `128`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Expr Rel Expr</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Unary</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Shift to `94`</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp;</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `K -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = num</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K id</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Unary</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Term</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Arith</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr_Assign</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `97`</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr &lt;</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Reduce by `Rel -&gt; &lt;`</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel num</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed N else M Stmt_Closed`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Open -&gt; if ( Bool ) M Stmt`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Open</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Open`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Expr Rel Expr</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join &amp;&amp; K Bool_Unary</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Shift to `41`</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Join &amp;&amp; K Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool_Join</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Shift to `86`</t>
+          <t>Shift to `92`</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M (</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool )</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Shift to `39`</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `63`</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if (</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( id</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Unary</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Term</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Shift to `97`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr &lt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Arith</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &lt;`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr_Assign</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `100`</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr &gt;</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Rel -&gt; &gt;`</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel id</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Expr Rel Expr</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Shift to `113`</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool )</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool_Unary</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool_Join</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Shift to `11`</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M {</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Reduce by `Decls -&gt; `</t>
+          <t>Shift to `92`</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool )</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; `</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id =</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = num</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Term</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M id = Expr</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Expr_Assign</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Expr</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Expr ;</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `N -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `128`</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id =</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = num</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Term</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Shift to `18`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts }</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M Block</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M id = Expr</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; while M ( Bool ) M Stmt_Closed`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Expr_Assign</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Expr</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Expr ;</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M if ( Bool ) M Stmt_Closed N else M Stmt_Closed</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Shift to `36`</t>
+          <t>Reduce by `Stmt_Closed -&gt; if ( Bool ) M Stmt_Closed N else M Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M Stmt_Closed</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M</t>
+          <t>$ Basic id ( ) { Decls Stmts M if ( Bool ) M Stmt</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Shift to `11`</t>
+          <t>Reduce by `Stmt_Open -&gt; if ( Bool ) M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M {</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Open</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Reduce by `Decls -&gt; `</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Open`</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; `</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -5168,319 +5168,319 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Shift to `41`</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M while</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Shift to `86`</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M (</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( id</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Unary</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Term</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Arith</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr_Assign</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `97`</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr &lt;</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Reduce by `Rel -&gt; &lt;`</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel num</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Expr Rel Expr</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool_Unary</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool_Join</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Shift to `18`</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts }</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+          <t>Shift to `113`</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Block</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool )</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Shift to `11`</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M {</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Shift to `89`</t>
+          <t>Reduce by `Decls -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmts -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Shift to `114`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M (</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -5492,691 +5492,691 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id =</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = id</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Term</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Shift to `97`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr &lt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &lt;`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M id = Expr</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Shift to `126`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool )</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Shift to `129`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool ) ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; do M Stmt while M ( Bool ) ;`</t>
+          <t>Shift to `18`</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M { Decls Stmts }</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M Block</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M while M ( Bool ) M Stmt_Closed</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmt_Closed -&gt; while M ( Bool ) M Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Shift to `37`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Shift to `60`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for (</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Shift to `36`</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M do</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = num</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `11`</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M {</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Decls -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Stmts -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id =</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = id</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Shift to `90`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Term</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Shift to `97`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr &lt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &lt;`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M id = Expr</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Shift to `18`</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M { Decls Stmts }</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Block</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt_Closed</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Shift to `122`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `89`</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Shift to `114`</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M (</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -6188,7 +6188,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( id</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -6200,7 +6200,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Unary</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -6212,7 +6212,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Term</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -6224,283 +6224,283 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Arith</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr_Assign</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `97`</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr &lt;</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Rel -&gt; &lt;`</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel num</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Reduce by `N -&gt; `</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Expr Rel Expr</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Shift to `135`</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N )</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool_Unary</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool_Join</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Shift to `11`</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M {</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Reduce by `Decls -&gt; `</t>
+          <t>Shift to `126`</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool )</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; `</t>
+          <t>Shift to `129`</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M do M Stmt while M ( Bool ) ;</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmt_Closed -&gt; do M Stmt while M ( Bool ) ;`</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Shift to `37`</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `60`</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for (</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id =</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -6512,7 +6512,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = num</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -6524,7 +6524,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Unary</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -6536,19 +6536,19 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Term</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Arith</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -6560,7 +6560,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Assign</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -6572,7 +6572,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -6584,7 +6584,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr_Assign</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -6596,1476 +6596,1476 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Shift to `90`</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ;</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M id</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Unary</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Shift to `18`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts }</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Term</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Block</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Arith</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Assign</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Shift to `97`</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr &lt;</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Rel -&gt; &lt;`</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel num</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Shift to `37`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Shift to `60`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for (</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Unary</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Join</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `122`</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ;</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id =</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Shift to `90`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = id</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Term</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Shift to `97`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr &lt;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; &lt;`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr_Assign</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `N -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `135`</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N )</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Shift to `11`</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M {</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Reduce by `Decls -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Stmts -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>Shift to `122`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id =</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = id</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Term</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr_Assign</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `44`</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr ;</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>Reduce by `N -&gt; `</t>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Shift to `135`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N )</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Shift to `11`</t>
+          <t>Shift to `18`</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M {</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts }</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Reduce by `Decls -&gt; `</t>
+          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Block</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; `</t>
+          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Shift to `39`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if</t>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>Shift to `63`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if (</t>
+          <t>$ Basic id ( ) { Decls Stmts</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Shift to `37`</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Shift to `60`</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for (</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id =</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = num</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Shift to `99`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr ==</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Unary</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; ==`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Term</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Arith</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr_Assign</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( id = Expr</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr_Assign</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `90`</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ;</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M id</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Unary</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>Shift to `92`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool )</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Term</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Arith</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>Shift to `34`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M break</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr_Assign</t>
         </is>
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>Shift to `57`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M break ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr</t>
         </is>
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; break ;`</t>
+          <t>Shift to `97`</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr &lt;</t>
         </is>
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Rel -&gt; &lt;`</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel</t>
         </is>
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Open -&gt; if ( Bool ) M Stmt`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Open</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel num</t>
         </is>
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Open`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>Shift to `39`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>Shift to `63`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if (</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Expr Rel Expr</t>
         </is>
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Unary</t>
         </is>
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; id`</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool_Join</t>
         </is>
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `122`</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ;</t>
         </is>
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M</t>
         </is>
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id</t>
         </is>
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Shift to `99`</t>
+          <t>Shift to `61`</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr ==</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id =</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>Reduce by `Rel -&gt; ==`</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = id</t>
         </is>
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Unary</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Term</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+          <t>Shift to `45`</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith +</t>
         </is>
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + num</t>
         </is>
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Unary</t>
         </is>
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith + Expr_Term</t>
         </is>
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Join</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Arith</t>
         </is>
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr_Assign</t>
         </is>
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Shift to `92`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool )</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M id = Expr</t>
         </is>
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr_Assign</t>
         </is>
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Shift to `35`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M continue</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Shift to `58`</t>
+          <t>Reduce by `N -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M continue ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; continue ;`</t>
+          <t>Shift to `135`</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N )</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Open -&gt; if ( Bool ) M Stmt`</t>
+          <t>Shift to `11`</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Open</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M {</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Open`</t>
+          <t>Reduce by `Decls -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls</t>
         </is>
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Stmts -&gt; `</t>
         </is>
       </c>
     </row>
@@ -8089,26 +8089,26 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>Shift to `38`</t>
+          <t>Shift to `39`</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if</t>
         </is>
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>Shift to `61`</t>
+          <t>Shift to `63`</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id =</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if (</t>
         </is>
       </c>
       <c r="B641" t="inlineStr">
@@ -8120,7 +8120,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = id</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( id</t>
         </is>
       </c>
       <c r="B642" t="inlineStr">
@@ -8132,7 +8132,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Unary</t>
         </is>
       </c>
       <c r="B643" t="inlineStr">
@@ -8144,7 +8144,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Term</t>
         </is>
       </c>
       <c r="B644" t="inlineStr">
@@ -8156,418 +8156,1114 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Arith</t>
         </is>
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Shift to `45`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith +</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Assign</t>
         </is>
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>Shift to `40`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + num</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr</t>
         </is>
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Unary -&gt; num`</t>
+          <t>Shift to `99`</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr ==</t>
         </is>
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+          <t>Reduce by `Rel -&gt; ==`</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel</t>
         </is>
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel num</t>
         </is>
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Unary</t>
         </is>
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Term</t>
         </is>
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr_Assign</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Arith</t>
         </is>
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Assign</t>
         </is>
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>Shift to `44`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr</t>
         </is>
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Unary</t>
         </is>
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Join</t>
         </is>
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool</t>
         </is>
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Shift to `18`</t>
+          <t>Shift to `92`</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts }</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool )</t>
         </is>
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Block</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
+          <t>Shift to `34`</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M break</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed`</t>
+          <t>Shift to `57`</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M break ;</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Stmt_Closed -&gt; break ;`</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt_Closed</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
         </is>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Reduce by `Stmt_Open -&gt; if ( Bool ) M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Open</t>
         </is>
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>Shift to `34`</t>
+          <t>Reduce by `Stmt -&gt; Stmt_Open`</t>
         </is>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M break</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
         </is>
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Shift to `57`</t>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
         </is>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M break ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
         </is>
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; break ;`</t>
+          <t>Reduce by `M -&gt; `</t>
         </is>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M</t>
         </is>
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Shift to `39`</t>
         </is>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if</t>
         </is>
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Shift to `63`</t>
         </is>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if (</t>
         </is>
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Reduce by `M -&gt; `</t>
+          <t>Shift to `38`</t>
         </is>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( id</t>
         </is>
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Shift to `35`</t>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
         </is>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M continue</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Unary</t>
         </is>
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>Shift to `58`</t>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
         </is>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M continue ;</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Term</t>
         </is>
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt_Closed -&gt; continue ;`</t>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
         </is>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Arith</t>
         </is>
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
         </is>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr_Assign</t>
         </is>
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
         </is>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr</t>
         </is>
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>Shift to `18`</t>
+          <t>Shift to `99`</t>
         </is>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) { Decls Stmts }</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr ==</t>
         </is>
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+          <t>Reduce by `Rel -&gt; ==`</t>
         </is>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>$ Basic id ( ) Block</t>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel</t>
         </is>
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Reduce by `Program -&gt; Basic id ( ) Block`</t>
+          <t>Shift to `40`</t>
         </is>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel num</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Unary</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Term</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Arith</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr_Assign</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Expr Rel Expr</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>Reduce by `Bool_Unary -&gt; Expr Rel Expr`</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Unary</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>Reduce by `Bool_Join -&gt; Bool_Unary`</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool_Join</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>Reduce by `Bool -&gt; Bool_Join`</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>Shift to `92`</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool )</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>Reduce by `M -&gt; `</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>Shift to `35`</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M continue</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>Shift to `58`</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M continue ;</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Closed -&gt; continue ;`</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt_Closed</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M if ( Bool ) M Stmt</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Open -&gt; if ( Bool ) M Stmt`</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Open</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt -&gt; Stmt_Open`</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>Reduce by `M -&gt; `</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Shift to `38`</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Shift to `61`</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id =</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Shift to `38`</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = id</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Unary -&gt; id`</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Unary</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Term</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Term`</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Shift to `45`</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith +</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Shift to `40`</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + num</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Unary -&gt; num`</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Unary</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Term -&gt; Expr_Unary`</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith + Expr_Term</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Arith -&gt; Expr_Arith + Expr_Term`</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Arith</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Assign -&gt; Expr_Arith`</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr_Assign</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M id = Expr</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr_Assign -&gt; id = Expr`</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr_Assign</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Reduce by `Expr -&gt; Expr_Assign`</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Shift to `44`</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Expr ;</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Closed -&gt; Expr ;`</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt_Closed</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts M Stmt</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Shift to `18`</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M { Decls Stmts }</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Block</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Closed -&gt; Block`</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Closed -&gt; for ( Expr ; M Bool ; M Expr N ) M Stmt_Closed`</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Reduce by `M -&gt; `</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Shift to `34`</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M break</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Shift to `57`</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M break ;</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Closed -&gt; break ;`</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>Reduce by `M -&gt; `</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>Shift to `35`</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M continue</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>Shift to `58`</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M continue ;</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt_Closed -&gt; continue ;`</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt_Closed</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmt -&gt; Stmt_Closed`</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts M Stmt</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>Reduce by `Stmts -&gt; Stmts M Stmt`</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>Shift to `18`</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) { Decls Stmts }</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>Reduce by `Block -&gt; { Decls Stmts }`</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>$ Basic id ( ) Block</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>Reduce by `Program -&gt; Basic id ( ) Block`</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
           <t>$ Program</t>
         </is>
       </c>
-      <c r="B679" t="inlineStr">
+      <c r="B737" t="inlineStr">
         <is>
           <t>accept</t>
         </is>
